--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_T45.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_T45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,25 +515,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4006423502480008</v>
+        <v>1.052939957446597E-10</v>
       </c>
       <c r="C3">
-        <v>-17.928363649752</v>
+        <v>7.869792681105293</v>
       </c>
       <c r="D3">
-        <v>-9.788281649751999</v>
+        <v>-10.45921331889471</v>
       </c>
       <c r="E3">
-        <v>-7.999972649751999</v>
+        <v>-2.319131318894706</v>
       </c>
       <c r="F3">
-        <v>-11.178091649752</v>
+        <v>-0.5308223188947059</v>
       </c>
       <c r="G3">
-        <v>-11.473420649752</v>
+        <v>-3.708941318894706</v>
       </c>
       <c r="H3">
-        <v>-8.958975649751999</v>
+        <v>-4.004270318894706</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,25 +541,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2428981503854697</v>
+        <v>0.4006423502480008</v>
       </c>
       <c r="C4">
-        <v>8.382980150385469</v>
+        <v>-17.928363649752</v>
       </c>
       <c r="D4">
-        <v>10.17128915038547</v>
+        <v>-9.788281649751999</v>
       </c>
       <c r="E4">
-        <v>6.99317015038547</v>
+        <v>-7.999972649751999</v>
       </c>
       <c r="F4">
-        <v>6.69784115038547</v>
+        <v>-11.178091649752</v>
       </c>
       <c r="G4">
-        <v>9.21228615038547</v>
+        <v>-11.473420649752</v>
       </c>
       <c r="H4">
-        <v>8.28256415038547</v>
+        <v>-8.958975649751999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,25 +567,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2433086034063205</v>
+        <v>0.2428981503854697</v>
       </c>
       <c r="C5">
-        <v>2.03161760340632</v>
+        <v>8.382980150385469</v>
       </c>
       <c r="D5">
-        <v>-1.146501396593679</v>
+        <v>10.17128915038547</v>
       </c>
       <c r="E5">
-        <v>-1.441830396593679</v>
+        <v>6.99317015038547</v>
       </c>
       <c r="F5">
-        <v>1.072614603406321</v>
+        <v>6.69784115038547</v>
       </c>
       <c r="G5">
-        <v>0.1428926034063205</v>
+        <v>9.21228615038547</v>
       </c>
       <c r="H5">
-        <v>0.3779006034063205</v>
+        <v>8.28256415038547</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,25 +593,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.115952868393072</v>
+        <v>0.2433086034063205</v>
       </c>
       <c r="C6">
-        <v>-3.294071868393072</v>
+        <v>2.03161760340632</v>
       </c>
       <c r="D6">
-        <v>-3.589400868393072</v>
+        <v>-1.146501396593679</v>
       </c>
       <c r="E6">
-        <v>-1.074955868393072</v>
+        <v>-1.441830396593679</v>
       </c>
       <c r="F6">
-        <v>-2.004677868393072</v>
+        <v>1.072614603406321</v>
       </c>
       <c r="G6">
-        <v>-1.769669868393072</v>
+        <v>0.1428926034063205</v>
       </c>
       <c r="H6">
-        <v>-2.076805868393072</v>
+        <v>0.3779006034063205</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -616,25 +619,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1459581181302581</v>
+        <v>-0.115952868393072</v>
       </c>
       <c r="C7">
-        <v>-0.1493708818697419</v>
+        <v>-3.294071868393072</v>
       </c>
       <c r="D7">
-        <v>2.365074118130258</v>
+        <v>-3.589400868393072</v>
       </c>
       <c r="E7">
-        <v>1.435352118130258</v>
+        <v>-1.074955868393072</v>
       </c>
       <c r="F7">
-        <v>1.670360118130258</v>
+        <v>-2.004677868393072</v>
       </c>
       <c r="G7">
-        <v>1.363224118130258</v>
+        <v>-1.769669868393072</v>
       </c>
       <c r="H7">
-        <v>1.873900118130258</v>
+        <v>-2.076805868393072</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -642,25 +645,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.08819670345554087</v>
+        <v>0.1459581181302581</v>
       </c>
       <c r="C8">
-        <v>2.426248296544459</v>
+        <v>-0.1493708818697419</v>
       </c>
       <c r="D8">
-        <v>1.496526296544459</v>
+        <v>2.365074118130258</v>
       </c>
       <c r="E8">
-        <v>1.731534296544459</v>
+        <v>1.435352118130258</v>
       </c>
       <c r="F8">
-        <v>1.424398296544459</v>
+        <v>1.670360118130258</v>
       </c>
       <c r="G8">
-        <v>1.935074296544459</v>
+        <v>1.363224118130258</v>
       </c>
       <c r="H8">
-        <v>1.647707296544459</v>
+        <v>1.873900118130258</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -668,25 +671,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3847923593882046</v>
+        <v>-0.08819670345554087</v>
       </c>
       <c r="C9">
-        <v>-0.5449296406117954</v>
+        <v>2.426248296544459</v>
       </c>
       <c r="D9">
-        <v>-0.3099216406117954</v>
+        <v>1.496526296544459</v>
       </c>
       <c r="E9">
-        <v>-0.6170576406117954</v>
+        <v>1.731534296544459</v>
       </c>
       <c r="F9">
-        <v>-0.1063816406117954</v>
+        <v>1.424398296544459</v>
       </c>
       <c r="G9">
-        <v>-0.3937486406117954</v>
+        <v>1.935074296544459</v>
       </c>
       <c r="H9">
-        <v>-0.3657496406117954</v>
+        <v>1.647707296544459</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -694,25 +697,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03766489642184559</v>
+        <v>0.3847923593882046</v>
       </c>
       <c r="C10">
-        <v>0.2726728964218456</v>
+        <v>-0.5449296406117954</v>
       </c>
       <c r="D10">
-        <v>-0.03446310357815441</v>
+        <v>-0.3099216406117954</v>
       </c>
       <c r="E10">
-        <v>0.4762128964218456</v>
+        <v>-0.6170576406117954</v>
       </c>
       <c r="F10">
-        <v>0.1888458964218456</v>
+        <v>-0.1063816406117954</v>
       </c>
       <c r="G10">
-        <v>0.2168448964218456</v>
+        <v>-0.3937486406117954</v>
       </c>
       <c r="H10">
-        <v>0.3094928964218456</v>
+        <v>-0.3657496406117954</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -720,25 +723,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1769978556124878</v>
+        <v>0.03766489642184559</v>
       </c>
       <c r="C11">
-        <v>-0.1301381443875122</v>
+        <v>0.2726728964218456</v>
       </c>
       <c r="D11">
-        <v>0.3805378556124878</v>
+        <v>-0.03446310357815441</v>
       </c>
       <c r="E11">
-        <v>0.09317085561248779</v>
+        <v>0.4762128964218456</v>
       </c>
       <c r="F11">
-        <v>0.1211698556124878</v>
+        <v>0.1888458964218456</v>
       </c>
       <c r="G11">
-        <v>0.2138178556124878</v>
+        <v>0.2168448964218456</v>
       </c>
       <c r="H11">
-        <v>0.4267938556124878</v>
+        <v>0.3094928964218456</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -746,25 +749,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1302808926112106</v>
+        <v>0.1769978556124878</v>
       </c>
       <c r="C12">
-        <v>0.6409568926112106</v>
+        <v>-0.1301381443875122</v>
       </c>
       <c r="D12">
-        <v>0.3535898926112106</v>
+        <v>0.3805378556124878</v>
       </c>
       <c r="E12">
-        <v>0.3815888926112106</v>
+        <v>0.09317085561248779</v>
       </c>
       <c r="F12">
-        <v>0.4742368926112106</v>
+        <v>0.1211698556124878</v>
       </c>
       <c r="G12">
-        <v>0.6872128926112107</v>
+        <v>0.2138178556124878</v>
       </c>
       <c r="H12">
-        <v>0.1865528926112106</v>
+        <v>0.4267938556124878</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -772,25 +775,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.1944981035472806</v>
+        <v>0.1302808926112106</v>
       </c>
       <c r="C13">
-        <v>-0.4818651035472806</v>
+        <v>0.6409568926112106</v>
       </c>
       <c r="D13">
-        <v>-0.4538661035472806</v>
+        <v>0.3535898926112106</v>
       </c>
       <c r="E13">
-        <v>-0.3612181035472806</v>
+        <v>0.3815888926112106</v>
       </c>
       <c r="F13">
-        <v>-0.1482421035472806</v>
+        <v>0.4742368926112106</v>
       </c>
       <c r="G13">
-        <v>-0.6489021035472806</v>
+        <v>0.6872128926112107</v>
       </c>
       <c r="H13">
-        <v>-0.3591451035472806</v>
+        <v>0.1865528926112106</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -798,25 +801,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.3817857436446591</v>
+        <v>-0.1944981035472806</v>
       </c>
       <c r="C14">
-        <v>-0.3537867436446591</v>
+        <v>-0.4818651035472806</v>
       </c>
       <c r="D14">
-        <v>-0.2611387436446591</v>
+        <v>-0.4538661035472806</v>
       </c>
       <c r="E14">
-        <v>-0.04816274364465911</v>
+        <v>-0.3612181035472806</v>
       </c>
       <c r="F14">
-        <v>-0.5488227436446591</v>
+        <v>-0.1482421035472806</v>
       </c>
       <c r="G14">
-        <v>-0.2590657436446591</v>
+        <v>-0.6489021035472806</v>
       </c>
       <c r="H14">
-        <v>-0.5169577436446591</v>
+        <v>-0.3591451035472806</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -824,25 +827,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>-2.375649628613696E-07</v>
+        <v>-0.3817857436446591</v>
       </c>
       <c r="C15">
-        <v>0.09264776243503714</v>
+        <v>-0.3537867436446591</v>
       </c>
       <c r="D15">
-        <v>0.3056237624350371</v>
+        <v>-0.2611387436446591</v>
       </c>
       <c r="E15">
-        <v>-0.1950362375649629</v>
+        <v>-0.04816274364465911</v>
       </c>
       <c r="F15">
-        <v>0.09472076243503715</v>
+        <v>-0.5488227436446591</v>
       </c>
       <c r="G15">
-        <v>-0.1631712375649629</v>
+        <v>-0.2590657436446591</v>
       </c>
       <c r="H15">
-        <v>0.2192097624350371</v>
+        <v>-0.5169577436446591</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -850,117 +853,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0555296279974082</v>
+        <v>-2.375649628613696E-07</v>
       </c>
       <c r="C16">
-        <v>0.1574463720025918</v>
+        <v>0.09264776243503714</v>
       </c>
       <c r="D16">
-        <v>-0.3432136279974082</v>
+        <v>0.3056237624350371</v>
       </c>
       <c r="E16">
-        <v>-0.05345662799740819</v>
+        <v>-0.1950362375649629</v>
       </c>
       <c r="F16">
-        <v>-0.3113486279974082</v>
+        <v>0.09472076243503715</v>
       </c>
       <c r="G16">
-        <v>0.0710323720025918</v>
+        <v>-0.1631712375649629</v>
       </c>
       <c r="H16">
-        <v>-0.3402447219974082</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.2192097624350371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>3.829984367986761E-07</v>
+        <v>-0.0555296279974082</v>
       </c>
       <c r="C17">
-        <v>-0.5006596170015631</v>
+        <v>0.1574463720025918</v>
       </c>
       <c r="D17">
-        <v>-0.2109026170015632</v>
+        <v>-0.3432136279974082</v>
       </c>
       <c r="E17">
-        <v>-0.4687946170015632</v>
+        <v>-0.05345662799740819</v>
       </c>
       <c r="F17">
-        <v>-0.08641361700156319</v>
+        <v>-0.3113486279974082</v>
       </c>
       <c r="G17">
-        <v>-0.4976907110015631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.0710323720025918</v>
+      </c>
+      <c r="H17">
+        <v>-0.3402447219974082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>-1.604754923945073E-07</v>
+        <v>3.829984367986761E-07</v>
       </c>
       <c r="C18">
-        <v>0.2897568395245076</v>
+        <v>-0.5006596170015631</v>
       </c>
       <c r="D18">
-        <v>0.03186483952450761</v>
+        <v>-0.2109026170015632</v>
       </c>
       <c r="E18">
-        <v>0.4142458395245076</v>
+        <v>-0.4687946170015632</v>
       </c>
       <c r="F18">
-        <v>0.002968745524507627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.08641361700156319</v>
+      </c>
+      <c r="G18">
+        <v>-0.4976907110015631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.009398958989038461</v>
+        <v>-1.604754923945073E-07</v>
       </c>
       <c r="C19">
-        <v>-0.2484930410109615</v>
+        <v>0.2897568395245076</v>
       </c>
       <c r="D19">
-        <v>0.1338879589890384</v>
+        <v>0.03186483952450761</v>
       </c>
       <c r="E19">
-        <v>-0.2773891350109615</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.4142458395245076</v>
+      </c>
+      <c r="F19">
+        <v>0.002968745524507627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.07651818316594991</v>
+        <v>0.009398958989038461</v>
       </c>
       <c r="C20">
-        <v>0.3058628168340501</v>
+        <v>-0.2484930410109615</v>
       </c>
       <c r="D20">
-        <v>-0.1054142771659499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.1338879589890384</v>
+      </c>
+      <c r="E20">
+        <v>-0.2773891350109615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>2.770877186031306E-07</v>
+        <v>-0.07651818316594991</v>
       </c>
       <c r="C21">
-        <v>-0.4112768169122814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.3058628168340501</v>
+      </c>
+      <c r="D21">
+        <v>-0.1054142771659499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>2.770877186031306E-07</v>
+      </c>
+      <c r="C22">
+        <v>-0.4112768169122814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.2010531357750048</v>
       </c>
     </row>
